--- a/AzureNamingConventions.xlsx
+++ b/AzureNamingConventions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vumc365.sharepoint.com/sites/VICTRCloudPlatformTeam/Shared Documents/General/Azure/Governance/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myteclouddev-my.sharepoint.com/personal/mifalowo_mytecloud_com/Documents/VUMC/Sargent&amp;Lundy/caf-landing-zone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="312" documentId="11_C23344623AC3727F83EC15AB55369CD22C730286" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5E7C761-55AA-4158-8246-AE5E10CE6A59}"/>
+  <xr:revisionPtr revIDLastSave="314" documentId="11_C23344623AC3727F83EC15AB55369CD22C730286" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C245C2B-5324-4D3C-B619-C87051B5E361}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Naming Convention(s)" sheetId="4" r:id="rId1"/>
@@ -855,9 +855,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -895,7 +895,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1001,7 +1001,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1143,7 +1143,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1157,13 +1157,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27.28515625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="27.29296875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" style="9" customWidth="1"/>
-    <col min="2" max="16384" width="27.28515625" style="2"/>
+    <col min="1" max="1" width="30.41015625" style="9" customWidth="1"/>
+    <col min="2" max="16384" width="27.29296875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="141" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -1240,7 +1240,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -1252,7 +1252,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="13" t="s">
         <v>203</v>
       </c>
@@ -1263,7 +1263,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="11" t="s">
         <v>206</v>
       </c>
@@ -1286,7 +1286,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="11" t="s">
         <v>200</v>
       </c>
@@ -1311,7 +1311,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="11" t="s">
         <v>210</v>
       </c>
@@ -1336,7 +1336,7 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="11" t="s">
         <v>213</v>
       </c>
@@ -1357,7 +1357,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="11" t="s">
         <v>215</v>
       </c>
@@ -1376,7 +1376,7 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1388,7 +1388,7 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1400,7 +1400,7 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1412,7 +1412,7 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -1424,7 +1424,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1436,7 +1436,7 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1448,7 +1448,7 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -1471,16 +1471,16 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E8" sqref="A1:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.703125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -1630,12 +1630,12 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="2" width="26.140625" customWidth="1"/>
+    <col min="1" max="2" width="26.1171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>56</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -1716,17 +1716,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD553A14-FE4B-4B48-98E5-DA562A5FFDB2}">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:D66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17" defaultRowHeight="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17" defaultRowHeight="33.75" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="48.140625" customWidth="1"/>
-    <col min="3" max="3" width="57" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.234375" customWidth="1"/>
+    <col min="3" max="3" width="21.52734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>74</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>78</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>80</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>84</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>86</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>88</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>90</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>92</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>94</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>96</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>98</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>100</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>103</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>105</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>107</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>109</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>111</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>113</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>115</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>117</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>119</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>121</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>123</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>125</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>127</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>129</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>131</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>134</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
         <v>136</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>138</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>140</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>142</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>144</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
         <v>146</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
         <v>148</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
         <v>150</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
         <v>153</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
         <v>155</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
         <v>158</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
         <v>160</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
         <v>162</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
         <v>164</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
         <v>40</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A52" t="s">
         <v>168</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A53" t="s">
         <v>170</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A54" t="s">
         <v>172</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A55" t="s">
         <v>174</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A56" t="s">
         <v>176</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A57" t="s">
         <v>178</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
         <v>180</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A59" t="s">
         <v>183</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A60" t="s">
         <v>186</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A61" t="s">
         <v>189</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A62" t="s">
         <v>192</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A63" t="s">
         <v>195</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A64" t="s">
         <v>198</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A65" t="s">
         <v>200</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A66" t="s">
         <v>218</v>
       </c>
@@ -2528,26 +2528,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ad112c53-c477-44e7-a8a2-afbee09dfdf2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="5601674c-ccfe-4d4c-8d2d-cc683eecefed" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A390B0C526FCA542A80331BC590F37AC" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5e41d73631fdc5269c4c1d3be56b95ab">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ad112c53-c477-44e7-a8a2-afbee09dfdf2" xmlns:ns3="5601674c-ccfe-4d4c-8d2d-cc683eecefed" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7a6b1e17fc0055efdd05b3f6e25fad16" ns2:_="" ns3:_="">
     <xsd:import namespace="ad112c53-c477-44e7-a8a2-afbee09dfdf2"/>
@@ -2790,10 +2770,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ad112c53-c477-44e7-a8a2-afbee09dfdf2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="5601674c-ccfe-4d4c-8d2d-cc683eecefed" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA453D2C-C463-417D-81AD-B0F593DDA312}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9E4C29B-D04E-4AEF-981C-45646B9AAAA7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ad112c53-c477-44e7-a8a2-afbee09dfdf2"/>
+    <ds:schemaRef ds:uri="5601674c-ccfe-4d4c-8d2d-cc683eecefed"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2816,5 +2827,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9E4C29B-D04E-4AEF-981C-45646B9AAAA7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA453D2C-C463-417D-81AD-B0F593DDA312}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>